--- a/spreadsheet/macrofree/hci_checklist.en.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.en.xlsx
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>Host</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>There are at least 5 Network Controller VMs deployed</t>
+          <t>If a VMSwitch is shared for Compute and Management traffic, require that Management traffic is tagged with a VLAN ID</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>This ensures you have at least 3 NCs active at all times during NC upgrades.</t>
+          <t>This ensures that Management traffic is not exposed to the VM traffic</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1999,12 +1999,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="n"/>
+      <c r="H28" s="15" t="inlineStr"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
+          <t>abc85d0e-0ebd-4589-a777-0fa8ceb1d0f0</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2025,13 +2025,17 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Backups of SDN infrastructure are configured and tested</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="n"/>
+          <t>There are at least 5 Network Controller VMs deployed</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>This ensures you have at least 3 NCs active at all times during NC upgrades.</t>
+        </is>
+      </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2040,16 +2044,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
+          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2060,23 +2060,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Cluster</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SCOM Managed Instance has been considered for more complex monitoring and alerting scenarios</t>
+          <t>Backups of SDN infrastructure are configured and tested</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2085,12 +2085,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
+          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2111,13 +2115,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Alerts have been configured for the cluster, either using Azure Monitor, SCOM, or a third-party solution</t>
+          <t>SCOM Managed Instance has been considered for more complex monitoring and alerting scenarios</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2126,16 +2130,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
+          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Insights has been enabled at the cluster level and all nodes are reporting data</t>
+          <t>Alerts have been configured for the cluster, either using Azure Monitor, SCOM, or a third-party solution</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2173,7 +2173,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
+          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitoring Agent has been deployed to hosts and an appropriate Data Collection Rule has been configured</t>
+          <t>Insights has been enabled at the cluster level and all nodes are reporting data</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2227,7 +2227,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
+          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Cluster</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Relevant hardware monitoring has been configured</t>
+          <t>Azure Monitoring Agent has been deployed to hosts and an appropriate Data Collection Rule has been configured</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2263,13 +2263,17 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="n"/>
+      <c r="H34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+        </is>
+      </c>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
+          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Relevant hardware alerting has been configured</t>
+          <t>Relevant hardware monitoring has been configured</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2305,17 +2309,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
+          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2326,23 +2326,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>VM Management - Resource Bridge</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>The Azure CLI has been installed on every node to enable RB management from WAC</t>
+          <t>Relevant hardware alerting has been configured</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2351,13 +2351,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
+          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2368,7 +2372,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>DHCP is available in the cluster to support Guest Configuration at VM deployment from Azure</t>
+          <t>The Azure CLI has been installed on every node to enable RB management from WAC</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2399,7 +2403,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
+          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2410,23 +2414,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Backup and Disaster Recovery</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>VM Management - Resource Bridge</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Backups of HCI VMs have been configured using MABS or a third-party solution</t>
+          <t>DHCP is available in the cluster to support Guest Configuration at VM deployment from Azure</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2435,17 +2439,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
+          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2456,17 +2456,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Cluster Configuration</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Cluster configuration or a configuration script has been documented and maintained</t>
+          <t>Backups of HCI VMs have been configured using MABS or a third-party solution</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2481,13 +2481,17 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
+        </is>
+      </c>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
+          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>A cluster witness has been configured</t>
+          <t>Cluster configuration or a configuration script has been documented and maintained</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2523,17 +2527,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
+          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Cluster-Aware Updating has been configured for Windows and hardware updates (if available)</t>
+          <t>A cluster witness has been configured for clusters with less than 5 nodes</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
+          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2600,13 +2600,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Cluster validation has been run against the configured cluster</t>
+          <t>Cluster-Aware Updating has been configured for Windows and hardware updates (if available)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
+          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure Benefits has been enabled at the cluster and VM levels</t>
+          <t>Cluster validation has been run against the configured cluster</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
+          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>The Environment Checker module has been run to validate the environment</t>
+          <t>Azure Benefits has been enabled at the cluster and VM levels</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2709,7 +2709,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2717,7 +2717,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
+          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Group Policy inheritance on the HCI cluster and node Active Directory organizational unit has been blocked or applied policies have been evaluated for compatibility issues (usually WinRM and PowerShell execution policy)</t>
+          <t>The Environment Checker module has been run to validate the environment</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2755,14 +2755,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
+          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>WAC is on the latest release and configured to automatically upgrade extensions</t>
+          <t>Group Policy inheritance on the HCI cluster and node Active Directory organizational unit has been blocked or applied policies have been evaluated for compatibility issues (usually WinRM and PowerShell execution policy)</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2798,13 +2798,17 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
+          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2815,17 +2819,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Stretch Clustering</t>
+          <t>Cluster Configuration</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>There is sub 5ms latency between each site if synchronous replication is being configured AAD</t>
+          <t>WAC is on the latest release and configured to automatically upgrade extensions</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2846,7 +2850,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
+          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2857,7 +2861,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Networking</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2867,13 +2871,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>There is a plan detailed for site failure and recovery</t>
+          <t>There is sub 5ms latency between each site if synchronous replication is being configured AAD</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2882,12 +2886,16 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
+          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2908,13 +2916,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Separate vLANs and networks are used for each replication network across both sites</t>
+          <t>Management, Replication and Storage networks excluded from stretched VLANs configurations, are routed, and in different subnets</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2928,7 +2936,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+          <t>3277558e-3155-4088-b49a-78594cb4ce1a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2939,23 +2947,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Backup and Disaster Recovery</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Disaster Recovery</t>
+          <t>Stretch Clustering</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery has been considered for DR purposes</t>
+          <t>There is a plan detailed for site failure and recovery</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2964,17 +2972,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2983,147 +2987,404 @@
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Networking</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Stretch Clustering</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Separate vLANs and networks are used for each replication network across both sites</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>Stretch Clustering</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Use either a cloud witness or a file share witness in a third site for cluster quorum for clusters with less than 5 nodes</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b5</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Stretch Clustering</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>When using data deduplication, only enable it on the primary/source volumes</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b6</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Stretch Clustering</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Storage backing log volumes must be faster (ideally) or at least as fast as capacity storage</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/storage-replica/stretch-cluster-replication-using-shared-storage#provision-operating-system-features-roles-storage-and-network</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>ac527887-f6f4-40a3-b883-e04d704f013b</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>Backup and Disaster Recovery</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>Disaster Recovery</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery has been considered for DR purposes</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Host</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>BitLocker has been enabled on CSVs for volume encryption, where appropriate</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/operating-system-security/data-protection/bitlocker/protecting-cluster-shared-volumes-and-storage-area-networks-with-bitlocker</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>03e65fdc-2628-4a1a-ba2e-a5174340ba52</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>Host</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>SMB encryption has been enabled, where appropriate</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/file-server/smb-security</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>9645d2e6-ba28-453c-b6d5-d9ef29fc34be</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>Host</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>Microsoft Defender Antivirus has been enabled on all nodes</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-antivirus-on-windows-server</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>8f03437a-5068-4486-9a78-0402ce771298</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>Host</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>Credential Guard has been configured, where appropriate</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/identity-protection/credential-guard/credential-guard-manage</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>dba6b211-fc02-43b3-b7c8-f163c188332e</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -7010,7 +7271,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/hci_checklist.en.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.en.xlsx
@@ -2025,7 +2025,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>There are at least 5 Network Controller VMs deployed</t>
+          <t>There are at least 3 Network Controller VMs deployed</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -7286,7 +7286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7484,6 +7484,13 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
